--- a/result/random_forest_genetic_algorithm_results.xlsx
+++ b/result/random_forest_genetic_algorithm_results.xlsx
@@ -10,6 +10,36 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CM1 Performance Metrics" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CM1 Best Hyperparameters" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CM1 Classification Report" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JM1 Performance Metrics" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JM1 Best Hyperparameters" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JM1 Classification Report" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KC1 Performance Metrics" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KC1 Best Hyperparameters" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KC1 Classification Report" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KC3 Performance Metrics" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KC3 Best Hyperparameters" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KC3 Classification Report" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC1 Performance Metrics" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC1 Best Hyperparameters" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC1 Classification Report" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC2 Performance Metrics" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC2 Best Hyperparameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC2 Classification Report" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MW1 Performance Metrics" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MW1 Best Hyperparameters" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MW1 Classification Report" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC1 Performance Metrics" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC1 Best Hyperparameters" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC1 Classification Report" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC2 Performance Metrics" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC2 Best Hyperparameters" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC2 Classification Report" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC3 Performance Metrics" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC3 Best Hyperparameters" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC3 Classification Report" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC4 Performance Metrics" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC4 Best Hyperparameters" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC4 Classification Report" sheetId="33" state="visible" r:id="rId33"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -464,7 +494,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8859649122807017</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +509,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.864406779661017</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -509,7 +539,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8869565217391304</v>
       </c>
     </row>
     <row r="6">
@@ -524,7 +554,1192 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9682588597842835</v>
+        <v>0.9645608628659476</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.890625</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8923076923076924</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.939453125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2.191207032236235</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>max_features</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4601141935928457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9032258064516129</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="E2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8923076923076924</v>
+      </c>
+      <c r="E3" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.890625</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.890625</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.890625</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.890625</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8910068426197458</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.890625</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8905982905982905</v>
+      </c>
+      <c r="E5" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8910068426197458</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.890625</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8905982905982905</v>
+      </c>
+      <c r="E6" t="n">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.990990990990991</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9865951742627346</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9945945945945946</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.990578734858681</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9994023507537021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.259809017313368</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>max_features</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1703179351560092</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.995049504950495</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9877149877149877</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9913686806411838</v>
+      </c>
+      <c r="E2" t="n">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9865951742627346</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9945945945945946</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.990578734858681</v>
+      </c>
+      <c r="E3" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.990990990990991</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.990990990990991</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.990990990990991</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.990990990990991</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9908223396066148</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9911547911547911</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9909737077499323</v>
+      </c>
+      <c r="E5" t="n">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9910236331944187</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.990990990990991</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9909925159828491</v>
+      </c>
+      <c r="E6" t="n">
+        <v>777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9111111111111112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15.00608903680792</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2.605144163112837</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>max_features</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4860811256456716</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8865384615384615</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8722222222222222</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8759398496240601</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8832167832167831</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8776486671223513</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.945054945054945</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9504950495049505</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9812925170068028</v>
       </c>
     </row>
   </sheetData>
@@ -575,7 +1790,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>243</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -590,7 +1805,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -605,7 +1820,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -635,7 +1850,1192 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4000754879683284</v>
+        <v>0.3117081125902753</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>max_features</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.766048336828502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9743589743589743</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9382716049382716</v>
+      </c>
+      <c r="E2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9504950495049505</v>
+      </c>
+      <c r="E3" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.945054945054945</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.945054945054945</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.945054945054945</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.945054945054945</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9487179487179487</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9421768707482994</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.944383327221611</v>
+      </c>
+      <c r="E5" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9467455621301776</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.945054945054945</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9448534597049448</v>
+      </c>
+      <c r="E6" t="n">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9418604651162791</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9206349206349206</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9586776859504132</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9392712550607287</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9870302225975749</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.209534855639236</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>max_features</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.06409394130548635</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9621212121212122</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.927007299270073</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9442379182156134</v>
+      </c>
+      <c r="E2" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9206349206349206</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9586776859504132</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9392712550607287</v>
+      </c>
+      <c r="E3" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9418604651162791</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9418604651162791</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9418604651162791</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9418604651162791</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9413780663780664</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9428424926102431</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9417545866381711</v>
+      </c>
+      <c r="E5" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9426644630133002</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9418604651162791</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9419085916972373</v>
+      </c>
+      <c r="E6" t="n">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9863013698630136</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9801324503311258</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9932885906040269</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9866666666666667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9992490730745764</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14.60058770057191</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>max_features</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.6825535887882401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9929078014184397</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9790209790209791</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9859154929577465</v>
+      </c>
+      <c r="E2" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9801324503311258</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9932885906040269</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9866666666666667</v>
+      </c>
+      <c r="E3" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9863013698630136</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9863013698630136</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9863013698630136</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9863013698630136</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9865201258747828</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.986154784812503</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9862910798122067</v>
+      </c>
+      <c r="E5" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9863888722677214</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9863013698630136</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9862987973503121</v>
+      </c>
+      <c r="E6" t="n">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9047619047619048</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8743961352657005</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9476439790575916</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9095477386934674</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9691463448777894</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>195.1692058479476</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6.603990662513997</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>max_features</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5025257565817153</v>
       </c>
     </row>
   </sheetData>
@@ -686,13 +3086,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9272727272727272</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="C2" t="n">
-        <v>0.864406779661017</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8849557522123894</v>
       </c>
       <c r="E2" t="n">
         <v>59</v>
@@ -705,13 +3105,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.864406779661017</v>
+        <v>0.85</v>
       </c>
       <c r="C3" t="n">
         <v>0.9272727272727272</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8869565217391304</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
@@ -724,16 +3124,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8859649122807017</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8859649122807017</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8859649122807017</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8859649122807017</v>
       </c>
     </row>
     <row r="5">
@@ -743,13 +3143,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8958397534668721</v>
+        <v>0.887962962962963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8958397534668721</v>
+        <v>0.8873651771956856</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8859561369757599</v>
       </c>
       <c r="E5" t="n">
         <v>114</v>
@@ -762,16 +3162,1226 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8969426648284812</v>
+        <v>0.8892949967511371</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8859649122807017</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8859210357559926</v>
       </c>
       <c r="E6" t="n">
         <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9415204678362573</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8609625668449198</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8994413407821229</v>
+      </c>
+      <c r="E2" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8743961352657005</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9476439790575916</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9095477386934674</v>
+      </c>
+      <c r="E3" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9047619047619048</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9079583015509789</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9043032729512557</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9044945397377951</v>
+      </c>
+      <c r="E5" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9076031463521929</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9045480127426171</v>
+      </c>
+      <c r="E6" t="n">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9139344262295082</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9867256637168141</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.948936170212766</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9931801575058862</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>104.9621254657327</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>max_features</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.4049099439620496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9036697247706422</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9425837320574163</v>
+      </c>
+      <c r="E2" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9139344262295082</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9867256637168141</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.948936170212766</v>
+      </c>
+      <c r="E3" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9494672131147541</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9451976942437281</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9457599511350911</v>
+      </c>
+      <c r="E5" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9488269827204253</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9458171803076619</v>
+      </c>
+      <c r="E6" t="n">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8592471358428805</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.856909239574816</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8611339359079704</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8590163934426229</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9304708694205092</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15.30824980977198</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7.003239180767997</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.520844272953608</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>max_features</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4632556623357537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8615888615888616</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8573757131214343</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8594771241830066</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.856909239574816</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8611339359079704</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8590163934426229</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8592471358428805</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8592471358428805</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8592471358428805</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8592471358428805</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8592490505818389</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8592548245147024</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8592467588128148</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8592586242766301</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8592471358428805</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8592477013879792</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8103448275862069</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8344370860927153</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7544910179640718</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7924528301886793</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8868892050153836</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>126.579657777349</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4273336568533914</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>max_features</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6240147851540402</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7918781725888325</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8618784530386741</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8253968253968254</v>
+      </c>
+      <c r="E2" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8344370860927153</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7544910179640718</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7924528301886793</v>
+      </c>
+      <c r="E3" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8103448275862069</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8131576293407738</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8081847355013729</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8089248277927523</v>
+      </c>
+      <c r="E5" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8123015592415578</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8095874943630312</v>
+      </c>
+      <c r="E6" t="n">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
